--- a/Taiwan_Data_Final.xlsx
+++ b/Taiwan_Data_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 수업 관련\3-2\호텔항공빅데이터분석론- 송학준 교수님\조별과제 파일\대만 최종파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4DA22-D6A1-485B-B00F-76EDEA8621D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE93CF8F-8CF1-4A97-99AE-FB589A63D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2F0769A-FDF6-424A-948C-8FAD68571C49}"/>
   </bookViews>
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377AC7-C357-4B0F-9ECA-1829A3655809}">
   <dimension ref="A1:FR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL19" workbookViewId="0">
       <selection activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>

--- a/Taiwan_Data_Final.xlsx
+++ b/Taiwan_Data_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\학교 수업 관련\3-2\호텔항공빅데이터분석론- 송학준 교수님\조별과제 파일\대만 최종파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE93CF8F-8CF1-4A97-99AE-FB589A63D26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED4DA22-D6A1-485B-B00F-76EDEA8621D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C2F0769A-FDF6-424A-948C-8FAD68571C49}"/>
   </bookViews>
@@ -1686,7 +1686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1377AC7-C357-4B0F-9ECA-1829A3655809}">
   <dimension ref="A1:FR51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AL1" workbookViewId="0">
       <selection activeCell="AV23" sqref="AV23"/>
     </sheetView>
   </sheetViews>
